--- a/Data/Required columns.xlsx
+++ b/Data/Required columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\Classwork\Crowdfunding_analysis\Week 7\Project 1\Project 1\Project-1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A90D1A-AB08-42D4-A082-D626081A3853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD8981-6F4D-446F-B8B8-2FC1CD897A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85A1A375-6EB3-4596-B6D2-E7D03CCB3E39}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -192,6 +192,51 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Configure?</t>
+  </si>
+  <si>
+    <t>Type of</t>
+  </si>
+  <si>
+    <t>Yes/No type</t>
+  </si>
+  <si>
+    <t>Strings 1</t>
+  </si>
+  <si>
+    <t>Strings 2</t>
+  </si>
+  <si>
+    <t>Strings 3</t>
+  </si>
+  <si>
+    <t>Strings 4</t>
+  </si>
+  <si>
+    <t>Strings 5</t>
+  </si>
+  <si>
+    <t>Strings 6</t>
+  </si>
+  <si>
+    <t>Strings 7</t>
+  </si>
+  <si>
+    <t>Strings 8</t>
+  </si>
+  <si>
+    <t>Strings 9</t>
+  </si>
+  <si>
+    <t>Strings 10</t>
+  </si>
+  <si>
+    <t>Strings 11</t>
+  </si>
+  <si>
+    <t>Strings 12</t>
   </si>
 </sst>
 </file>
@@ -544,10 +589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F81F57-918A-4CA7-9103-D84462FF7E48}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,9 +602,12 @@
     <col min="3" max="3" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +626,14 @@
       <c r="F1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -599,7 +653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -618,8 +672,11 @@
       <c r="F3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -639,7 +696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -658,8 +715,14 @@
       <c r="F5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -678,8 +741,14 @@
       <c r="F6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -698,8 +767,14 @@
       <c r="F7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -718,8 +793,14 @@
       <c r="F8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -738,8 +819,14 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -758,8 +845,14 @@
       <c r="F10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -778,8 +871,14 @@
       <c r="F11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -798,8 +897,11 @@
       <c r="F12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -818,8 +920,11 @@
       <c r="F13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -838,8 +943,11 @@
       <c r="F14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -858,8 +966,14 @@
       <c r="F15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -879,7 +993,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -898,8 +1012,11 @@
       <c r="F17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -918,8 +1035,14 @@
       <c r="F18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -938,8 +1061,14 @@
       <c r="F19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -959,7 +1088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -978,8 +1107,14 @@
       <c r="F21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -998,8 +1133,14 @@
       <c r="F22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1018,8 +1159,14 @@
       <c r="F23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1038,8 +1185,14 @@
       <c r="F24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1058,8 +1211,14 @@
       <c r="F25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1078,8 +1237,14 @@
       <c r="F26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1099,7 +1264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1118,8 +1283,14 @@
       <c r="F28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1138,8 +1309,14 @@
       <c r="F29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1158,8 +1335,14 @@
       <c r="F30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1179,7 +1362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1199,7 +1382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1219,7 +1402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1238,8 +1421,14 @@
       <c r="F34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1259,7 +1448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1278,8 +1467,14 @@
       <c r="F36" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1298,8 +1493,14 @@
       <c r="F37" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1319,7 +1520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1339,7 +1540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1358,8 +1559,14 @@
       <c r="F40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1378,12 +1585,23 @@
       <c r="F41" t="s">
         <v>50</v>
       </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F41" xr:uid="{65F81F57-918A-4CA7-9103-D84462FF7E48}">
+  <autoFilter ref="A1:H41" xr:uid="{65F81F57-918A-4CA7-9103-D84462FF7E48}">
     <filterColumn colId="5">
       <filters>
-        <filter val="NO"/>
+        <filter val="YES"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="YES"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Data/Required columns.xlsx
+++ b/Data/Required columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\Classwork\Crowdfunding_analysis\Week 7\Project 1\Project 1\Project-1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c60c8c1150d6d36f/Escritorio/PROJECT 1/Project-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD8981-6F4D-446F-B8B8-2FC1CD897A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5EFD8981-6F4D-446F-B8B8-2FC1CD897A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9D8C77-82BF-44E1-958E-4A3B4D3D30D0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85A1A375-6EB3-4596-B6D2-E7D03CCB3E39}"/>
+    <workbookView minimized="1" xWindow="3480" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{85A1A375-6EB3-4596-B6D2-E7D03CCB3E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -592,10 +592,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="B5" sqref="B5:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
@@ -748,7 +748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -947,7 +947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1604,6 +1604,22 @@
         <filter val="YES"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Strings 1"/>
+        <filter val="Strings 10"/>
+        <filter val="Strings 11"/>
+        <filter val="Strings 12"/>
+        <filter val="Strings 2"/>
+        <filter val="Strings 3"/>
+        <filter val="Strings 4"/>
+        <filter val="Strings 5"/>
+        <filter val="Strings 6"/>
+        <filter val="Strings 7"/>
+        <filter val="Strings 8"/>
+        <filter val="Strings 9"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
